--- a/bin/upload/template/role/Bulk Upload Template.xlsx
+++ b/bin/upload/template/role/Bulk Upload Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -72,16 +72,19 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
-    <t xml:space="preserve">E0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiksha Wakekar</t>
+    <t xml:space="preserve">App Role Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
   </si>
   <si>
     <t xml:space="preserve">Solution Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">pratiksha@quadwave.com</t>
+    <t xml:space="preserve">p1@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Female</t>
@@ -90,85 +93,43 @@
     <t xml:space="preserve">Pune</t>
   </si>
   <si>
-    <t xml:space="preserve">E0123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrunali Desai</t>
+    <t xml:space="preserve">E0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
   </si>
   <si>
     <t xml:space="preserve">Java Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">mrunali@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suraksha Nigade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suraksha@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.NET Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pratiksha.s@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranjana Mishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranjana@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devkaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReactJs Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devkaran@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish Langhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachin Rathod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sachin@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juhi Tipale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juhi@quadwave.com</t>
+    <t xml:space="preserve">p2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sr.No</t>
@@ -283,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,12 +257,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -364,7 +333,7 @@
     <tableColumn id="8" name="Gender"/>
     <tableColumn id="9" name="Mobile"/>
     <tableColumn id="10" name="Location"/>
-    <tableColumn id="11" name=""/>
+    <tableColumn id="11" name="App Role Id"/>
   </tableColumns>
 </table>
 </file>
@@ -459,10 +428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,343 +446,223 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="n">
         <v>44918</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="9" t="n">
         <v>35952</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <v>8723456712</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>44919</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>35953</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="I3" s="11" t="n">
+        <v>9876452367</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>44920</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>35952</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>1234543267</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>44921</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>35953</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>35954</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>36657</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>9876452367</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>44920</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>1234543267</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="n">
-        <v>44921</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>9856432111</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>44922</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>37291</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>9823457281</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>44923</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>9823546721</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>44924</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>9052086452</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>44925</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>1209782345</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>44926</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>35953</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>4123487659</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="pratiksha@quadwave.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="mrunali@quadwave.com"/>
-    <hyperlink ref="G4" r:id="rId3" display="suraksha@quadwave.com"/>
-    <hyperlink ref="G5" r:id="rId4" display="pratiksha.s@quadwave.com"/>
-    <hyperlink ref="G6" r:id="rId5" display="ranjana@quadwave.com"/>
-    <hyperlink ref="G7" r:id="rId6" display="devkaran@quadwave.com"/>
-    <hyperlink ref="G8" r:id="rId7" display="manish@quadwave.com"/>
-    <hyperlink ref="G9" r:id="rId8" display="sachin@quadwave.com"/>
-    <hyperlink ref="G10" r:id="rId9" display="juhi@quadwave.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="p1@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -823,7 +672,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -833,10 +682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,11 +696,11 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,45 +708,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>52</v>
+      <c r="B5" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
